--- a/universal_calendar.xlsx
+++ b/universal_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\excel_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDC2055-33A0-41B2-9D79-7435ED5AC177}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9700BA-7B43-41EB-91F2-01C93F151565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,14 +671,14 @@
     <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="5" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1065,17 +1065,17 @@
   <sheetData>
     <row r="1" spans="1:29" ht="64.5" customHeight="1" thickTop="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1102,80 +1102,80 @@
     </row>
     <row r="2" spans="1:29" ht="50.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <f ca="1">YEAR(TODAY())</f>
         <v>2019</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="31.5" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="9" t="str">
+      <c r="B3" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>1월</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="str">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>2월</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="str">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>3월</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="str">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>4월</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
       <c r="A4" s="4"/>
@@ -1984,46 +1984,46 @@
     </row>
     <row r="11" spans="1:29" ht="31.5" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>5월</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="str">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>6월</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="str">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>7월</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9" t="str">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>8월</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
       <c r="A12" s="4"/>
@@ -2832,46 +2832,46 @@
     </row>
     <row r="19" spans="1:29" ht="31.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>9월</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="str">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>10월</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="str">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>11월</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9" t="str">
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7" t="str">
         <f ca="1">월머리글</f>
         <v>12월</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
       <c r="A20" s="4"/>
@@ -3680,6 +3680,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:AC2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="P1:AC1"/>
+    <mergeCell ref="K1:O1"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="P11:V11"/>
@@ -3688,14 +3696,6 @@
     <mergeCell ref="I19:O19"/>
     <mergeCell ref="P19:V19"/>
     <mergeCell ref="W19:AC19"/>
-    <mergeCell ref="B2:AC2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:V3"/>
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="P1:AC1"/>
-    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:H10">
